--- a/src/backend/Khảo sát tối nay có đi học không.xlsx
+++ b/src/backend/Khảo sát tối nay có đi học không.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Time Stamp</t>
   </si>
@@ -22,10 +22,13 @@
     <t>Tại sao không đi</t>
   </si>
   <si>
+    <t>Question</t>
+  </si>
+  <si>
     <t>Có</t>
   </si>
   <si>
-    <t>Nhà xa</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -406,15 +409,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,13 +428,22 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
